--- a/tutorial/tutorial_data/pyscnet_scanpy_pbmc/CD14 Monocytes_centrality.xlsx
+++ b/tutorial/tutorial_data/pyscnet_scanpy_pbmc/CD14 Monocytes_centrality.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J164"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,5543 +489,6495 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CLIC3</t>
+          <t>S100A8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01786077298356371</v>
+        <v>0.00122852286505208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2485475671750181</v>
+        <v>0.5919003115264797</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09876543209876543</v>
+        <v>0.3105263157894737</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0124673775448246</v>
+        <v>0.00478149579587622</v>
       </c>
       <c r="F2" t="n">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>191.5</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>198</v>
+        <v>61</v>
       </c>
       <c r="J2" t="n">
-        <v>184.125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TREML1</t>
+          <t>S100A9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03745488437706793</v>
+        <v>0.0004936846386793329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2522572323567349</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1358024691358025</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0372400872761253</v>
+        <v>0.004454650388562549</v>
       </c>
       <c r="F3" t="n">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>200.5</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>203.5</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>196.25</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADAM28</t>
+          <t>BLK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05206505975438125</v>
+        <v>0.002560979330245403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2303405051843439</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04320987654320987</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009609887220983051</v>
+        <v>0.006510581355335531</v>
       </c>
       <c r="F4" t="n">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="G4" t="n">
-        <v>177</v>
+        <v>126.5</v>
       </c>
       <c r="H4" t="n">
-        <v>141.5</v>
+        <v>126.5</v>
       </c>
       <c r="I4" t="n">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="J4" t="n">
-        <v>172.625</v>
+        <v>127.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CMTM5</t>
+          <t>TSPAN13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03660597875781829</v>
+        <v>0.0003308376657507128</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2280099098536423</v>
+        <v>0.56047197640118</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04320987654320987</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01114244866748796</v>
+        <v>0.007990207844930998</v>
       </c>
       <c r="F5" t="n">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>141.5</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J5" t="n">
-        <v>170.375</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CLDN5</t>
+          <t>HLA-DRB1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01549441752621388</v>
+        <v>0.003794349218389831</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1648900933453779</v>
+        <v>0.7196969696969697</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04320987654320987</v>
+        <v>0.6105263157894737</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01645148203055662</v>
+        <v>0.006934299957518764</v>
       </c>
       <c r="F6" t="n">
         <v>153</v>
       </c>
       <c r="G6" t="n">
-        <v>104</v>
+        <v>167.5</v>
       </c>
       <c r="H6" t="n">
-        <v>141.5</v>
+        <v>167.5</v>
       </c>
       <c r="I6" t="n">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="J6" t="n">
-        <v>150.375</v>
+        <v>168.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JAKMIP1</t>
+          <t>HLA-DRB5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09405939577593511</v>
+        <v>0.004351972780710181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1760545267489712</v>
+        <v>0.7421875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06172839506172839</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02168676325461548</v>
+        <v>0.00700763039457342</v>
       </c>
       <c r="F7" t="n">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="G7" t="n">
-        <v>111</v>
+        <v>180.5</v>
       </c>
       <c r="H7" t="n">
-        <v>164</v>
+        <v>180.5</v>
       </c>
       <c r="I7" t="n">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="J7" t="n">
-        <v>169.25</v>
+        <v>180.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PTGDR</t>
+          <t>FCRLA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005627138333174017</v>
+        <v>0.001904737814350956</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2414462081128748</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E8" t="n">
-        <v>0.007624404418700537</v>
+        <v>0.006449127903992071</v>
       </c>
       <c r="F8" t="n">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5</v>
+        <v>87.5</v>
       </c>
       <c r="H8" t="n">
-        <v>155.5</v>
+        <v>87.5</v>
       </c>
       <c r="I8" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J8" t="n">
-        <v>161</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HLA-DOB</t>
+          <t>CST7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003952627998942682</v>
+        <v>0.003408250766004843</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2410158227151691</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006044640325227553</v>
+        <v>0.007112448425670031</v>
       </c>
       <c r="F9" t="n">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G9" t="n">
-        <v>186</v>
+        <v>164.5</v>
       </c>
       <c r="H9" t="n">
-        <v>155.5</v>
+        <v>164.5</v>
       </c>
       <c r="I9" t="n">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="J9" t="n">
-        <v>149.375</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HLA-DPA1</t>
+          <t>CD72</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002892278580658038</v>
+        <v>0.003335937805948057</v>
       </c>
       <c r="C10" t="n">
-        <v>0.198254950943123</v>
+        <v>0.7279693486590039</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.6263157894736842</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01503829066994794</v>
+        <v>0.007220930005346535</v>
       </c>
       <c r="F10" t="n">
-        <v>116.5</v>
+        <v>131</v>
       </c>
       <c r="G10" t="n">
-        <v>132.5</v>
+        <v>175</v>
       </c>
       <c r="H10" t="n">
-        <v>134.5</v>
+        <v>175</v>
       </c>
       <c r="I10" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="J10" t="n">
-        <v>145.875</v>
+        <v>167.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HLA-DPB1</t>
+          <t>HLA-DQA1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002892278580658038</v>
+        <v>0.003953707696013278</v>
       </c>
       <c r="C11" t="n">
-        <v>0.198254950943123</v>
+        <v>0.7196969696969697</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.6105263157894737</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01490640819301325</v>
+        <v>0.006835473315435798</v>
       </c>
       <c r="F11" t="n">
-        <v>116.5</v>
+        <v>159</v>
       </c>
       <c r="G11" t="n">
-        <v>132.5</v>
+        <v>167.5</v>
       </c>
       <c r="H11" t="n">
-        <v>134.5</v>
+        <v>167.5</v>
       </c>
       <c r="I11" t="n">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="J11" t="n">
-        <v>145.625</v>
+        <v>168.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ITGA2B</t>
+          <t>HLA-DQA2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02980950677519787</v>
+        <v>0.003135590761411729</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2522572323567349</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1049382716049383</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009056967349536886</v>
+        <v>0.006365850583854614</v>
       </c>
       <c r="F12" t="n">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="G12" t="n">
-        <v>200.5</v>
+        <v>137.5</v>
       </c>
       <c r="H12" t="n">
-        <v>194.5</v>
+        <v>137.5</v>
       </c>
       <c r="I12" t="n">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="J12" t="n">
-        <v>186.25</v>
+        <v>140.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TMEM40</t>
+          <t>LYZ</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.006784797063205089</v>
+        <v>0.0007405733428381016</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2376271995486993</v>
+        <v>0.5775075987841946</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04938271604938271</v>
+        <v>0.2684210526315789</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005260236133639839</v>
+        <v>0.004353633104025706</v>
       </c>
       <c r="F13" t="n">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>182</v>
+        <v>11.5</v>
       </c>
       <c r="H13" t="n">
-        <v>147.5</v>
+        <v>11.5</v>
       </c>
       <c r="I13" t="n">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="J13" t="n">
-        <v>148.125</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SAMD3</t>
+          <t>P2RX5</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006635907197041727</v>
+        <v>0.001660361066103585</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2331204767986377</v>
+        <v>0.6354515050167224</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06790123456790123</v>
+        <v>0.4263157894736842</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005781829324350478</v>
+        <v>0.004813153110107059</v>
       </c>
       <c r="F14" t="n">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>180</v>
+        <v>53.5</v>
       </c>
       <c r="H14" t="n">
-        <v>168</v>
+        <v>53.5</v>
       </c>
       <c r="I14" t="n">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="J14" t="n">
-        <v>154</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CD72</t>
+          <t>FCER2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004327076961761528</v>
+        <v>0.001718051490813551</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2173792227382795</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009418111091913975</v>
+        <v>0.005594127101278837</v>
       </c>
       <c r="F15" t="n">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="G15" t="n">
-        <v>161.5</v>
+        <v>69.5</v>
       </c>
       <c r="H15" t="n">
-        <v>199.5</v>
+        <v>69.5</v>
       </c>
       <c r="I15" t="n">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="J15" t="n">
-        <v>168.25</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GZMH</t>
+          <t>HLA-DPA1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02864782326403842</v>
+        <v>0.004847121536794977</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2508532032341556</v>
+        <v>0.7364341085271318</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.6421052631578947</v>
       </c>
       <c r="E16" t="n">
-        <v>0.009046088853212892</v>
+        <v>0.006878290403347862</v>
       </c>
       <c r="F16" t="n">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G16" t="n">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H16" t="n">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I16" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J16" t="n">
-        <v>182.75</v>
+        <v>180.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LY6G6F</t>
+          <t>HLA-DPB1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01973929988454279</v>
+        <v>0.004521439188329681</v>
       </c>
       <c r="C17" t="n">
-        <v>0.251787479596294</v>
+        <v>0.7251908396946565</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09876543209876543</v>
+        <v>0.6210526315789473</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02180605438996482</v>
+        <v>0.006867382262053178</v>
       </c>
       <c r="F17" t="n">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G17" t="n">
-        <v>199</v>
+        <v>172.5</v>
       </c>
       <c r="H17" t="n">
-        <v>191.5</v>
+        <v>172.5</v>
       </c>
       <c r="I17" t="n">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="J17" t="n">
-        <v>188.625</v>
+        <v>176.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GP9</t>
+          <t>HLA-DRA</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03911178541530884</v>
+        <v>0.003711363894705001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2513194731286429</v>
+        <v>0.6934306569343066</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006799971706783826</v>
+        <v>0.006274178406240851</v>
       </c>
       <c r="F18" t="n">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="G18" t="n">
-        <v>198</v>
+        <v>133.5</v>
       </c>
       <c r="H18" t="n">
-        <v>173</v>
+        <v>133.5</v>
       </c>
       <c r="I18" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J18" t="n">
-        <v>176.5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FCRL6</t>
+          <t>PKIG</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01039683787637238</v>
+        <v>0.001063752741209783</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2503886602652035</v>
+        <v>0.6209150326797386</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08641975308641975</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="E19" t="n">
-        <v>0.008372404658152144</v>
+        <v>0.005381300778977167</v>
       </c>
       <c r="F19" t="n">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="G19" t="n">
-        <v>196</v>
+        <v>42.5</v>
       </c>
       <c r="H19" t="n">
-        <v>183</v>
+        <v>42.5</v>
       </c>
       <c r="I19" t="n">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="J19" t="n">
-        <v>173.75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AKR1C3</t>
+          <t>RPS27A</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001584571149625163</v>
+        <v>0.004033382591636237</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2453899755775134</v>
+        <v>0.7335907335907336</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06790123456790123</v>
+        <v>0.6368421052631579</v>
       </c>
       <c r="E20" t="n">
-        <v>0.007115602691697039</v>
+        <v>0.006323874874024906</v>
       </c>
       <c r="F20" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="G20" t="n">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H20" t="n">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="I20" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J20" t="n">
-        <v>157.25</v>
+        <v>169.75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FGFBP2</t>
+          <t>RPS3A</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03709598255974978</v>
+        <v>0.002989732738288238</v>
       </c>
       <c r="C21" t="n">
-        <v>0.25511297460983</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1172839506172839</v>
+        <v>0.531578947368421</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008894627971926937</v>
+        <v>0.005822932001907111</v>
       </c>
       <c r="F21" t="n">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="G21" t="n">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="H21" t="n">
-        <v>197.5</v>
+        <v>115</v>
       </c>
       <c r="I21" t="n">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="J21" t="n">
-        <v>187.875</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GPR56</t>
+          <t>AIF1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1064312951010108</v>
+        <v>0.001420226237472222</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2494647168693909</v>
+        <v>0.6070287539936102</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08024691358024691</v>
+        <v>0.3526315789473684</v>
       </c>
       <c r="E22" t="n">
-        <v>0.007910414285682243</v>
+        <v>0.004456639149465095</v>
       </c>
       <c r="F22" t="n">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="G22" t="n">
-        <v>193.5</v>
+        <v>24.5</v>
       </c>
       <c r="H22" t="n">
-        <v>179</v>
+        <v>24.5</v>
       </c>
       <c r="I22" t="n">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="J22" t="n">
-        <v>186.125</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SPARC</t>
+          <t>FTH1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02134867774184896</v>
+        <v>0.0007827395951548133</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2384653907287652</v>
+        <v>0.5864197530864198</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.2947368421052631</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003787945205025084</v>
+        <v>0.004076381709590783</v>
       </c>
       <c r="F23" t="n">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>183.5</v>
+        <v>14</v>
       </c>
       <c r="H23" t="n">
-        <v>134.5</v>
+        <v>14</v>
       </c>
       <c r="I23" t="n">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="J23" t="n">
-        <v>142.25</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NKG7</t>
+          <t>TCL1A</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01884655366905651</v>
+        <v>0.001106763223219887</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2159902181201435</v>
+        <v>0.6148867313915858</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="E24" t="n">
-        <v>0.009531346158548004</v>
+        <v>0.00559620097861494</v>
       </c>
       <c r="F24" t="n">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>158</v>
+        <v>32.5</v>
       </c>
       <c r="H24" t="n">
-        <v>187</v>
+        <v>32.5</v>
       </c>
       <c r="I24" t="n">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="J24" t="n">
-        <v>172.25</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S1PR5</t>
+          <t>HLA-C</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.03722793751393627</v>
+        <v>0.002676725887782976</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2401596386202662</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1358024691358025</v>
+        <v>0.5526315789473684</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01516068290787996</v>
+        <v>0.005570444497678139</v>
       </c>
       <c r="F25" t="n">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="G25" t="n">
-        <v>185</v>
+        <v>130.5</v>
       </c>
       <c r="H25" t="n">
-        <v>203.5</v>
+        <v>130.5</v>
       </c>
       <c r="I25" t="n">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="J25" t="n">
-        <v>190.625</v>
+        <v>119.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GNG11</t>
+          <t>CTSW</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.004505888885684247</v>
+        <v>0.00259452336445755</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2414462081128748</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E26" t="n">
-        <v>0.005065177369563805</v>
+        <v>0.005847216545312655</v>
       </c>
       <c r="F26" t="n">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="G26" t="n">
-        <v>187.5</v>
+        <v>118.5</v>
       </c>
       <c r="H26" t="n">
-        <v>155.5</v>
+        <v>118.5</v>
       </c>
       <c r="I26" t="n">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="J26" t="n">
-        <v>148.5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CD2</t>
+          <t>CD37</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.005321677785445901</v>
+        <v>0.00232800508547409</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1495684475035507</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0308641975308642</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E27" t="n">
-        <v>0.009176987185273166</v>
+        <v>0.005030521704789088</v>
       </c>
       <c r="F27" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="G27" t="n">
-        <v>94</v>
+        <v>80.5</v>
       </c>
       <c r="H27" t="n">
-        <v>128.5</v>
+        <v>80.5</v>
       </c>
       <c r="I27" t="n">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="J27" t="n">
-        <v>133.875</v>
+        <v>77.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LINC00926</t>
+          <t>VPREB3</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01281103946727972</v>
+        <v>0.001261720276798395</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2276260547865486</v>
+        <v>0.6209150326797386</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="E28" t="n">
-        <v>0.008720514612045552</v>
+        <v>0.004949960773406779</v>
       </c>
       <c r="F28" t="n">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="G28" t="n">
-        <v>173.5</v>
+        <v>42.5</v>
       </c>
       <c r="H28" t="n">
-        <v>201</v>
+        <v>42.5</v>
       </c>
       <c r="I28" t="n">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="J28" t="n">
-        <v>175.625</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TCL1A</t>
+          <t>RPS15A</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.07318790100097428</v>
+        <v>0.002502892062661091</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2494647168693909</v>
+        <v>0.6761565836298933</v>
       </c>
       <c r="D29" t="n">
-        <v>0.191358024691358</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0152330735399384</v>
+        <v>0.005758501304251078</v>
       </c>
       <c r="F29" t="n">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="G29" t="n">
-        <v>193.5</v>
+        <v>102</v>
       </c>
       <c r="H29" t="n">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="I29" t="n">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="J29" t="n">
-        <v>198.625</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PRF1</t>
+          <t>LINC00926</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002454298648598514</v>
+        <v>0.001526743561110034</v>
       </c>
       <c r="C30" t="n">
-        <v>0.214960058097313</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E30" t="n">
-        <v>0.006879826510901861</v>
+        <v>0.005589844250765824</v>
       </c>
       <c r="F30" t="n">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="G30" t="n">
-        <v>154.5</v>
+        <v>66.5</v>
       </c>
       <c r="H30" t="n">
-        <v>187</v>
+        <v>66.5</v>
       </c>
       <c r="I30" t="n">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="J30" t="n">
-        <v>154.375</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HLA-DRB1</t>
+          <t>S100A4</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.0004476486169725809</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1852190089633012</v>
+        <v>0.5571847507331378</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.2052631578947368</v>
       </c>
       <c r="E31" t="n">
-        <v>0.006093116611504787</v>
+        <v>0.003250060620493461</v>
       </c>
       <c r="F31" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>109</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CLU</t>
+          <t>S100A6</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.08720336860711672</v>
+        <v>0.0007940208420613205</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2625434495984658</v>
+        <v>0.5740181268882175</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.2578947368421052</v>
       </c>
       <c r="E32" t="n">
-        <v>0.007150857635350281</v>
+        <v>0.00367657797583917</v>
       </c>
       <c r="F32" t="n">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="G32" t="n">
-        <v>204</v>
+        <v>7.5</v>
       </c>
       <c r="H32" t="n">
-        <v>187</v>
+        <v>7.5</v>
       </c>
       <c r="I32" t="n">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="J32" t="n">
-        <v>188.25</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CD247</t>
+          <t>C12orf75</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04837716947417092</v>
+        <v>0.001771147518526716</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1937104248470055</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E33" t="n">
-        <v>0.007615922471312847</v>
+        <v>0.005421622806736527</v>
       </c>
       <c r="F33" t="n">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="G33" t="n">
-        <v>128</v>
+        <v>69.5</v>
       </c>
       <c r="H33" t="n">
-        <v>134.5</v>
+        <v>69.5</v>
       </c>
       <c r="I33" t="n">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="J33" t="n">
-        <v>153.125</v>
+        <v>73.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100A6</t>
+          <t>RPL13</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.04420673261252971</v>
+        <v>0.002436746064982306</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1255430608572051</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E34" t="n">
-        <v>0.009708047608681394</v>
+        <v>0.00554635128278008</v>
       </c>
       <c r="F34" t="n">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="G34" t="n">
-        <v>77</v>
+        <v>80.5</v>
       </c>
       <c r="H34" t="n">
-        <v>110</v>
+        <v>80.5</v>
       </c>
       <c r="I34" t="n">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="J34" t="n">
-        <v>139.25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100A8</t>
+          <t>RPL32</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.09792193850164864</v>
+        <v>0.002597630533809328</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1441469899181342</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04320987654320987</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02218044152225732</v>
+        <v>0.005647520875452722</v>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="G35" t="n">
-        <v>89</v>
+        <v>91.5</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5</v>
+        <v>91.5</v>
       </c>
       <c r="I35" t="n">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="J35" t="n">
-        <v>159.125</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>XCL2</t>
+          <t>FGFBP2</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.06895243965115429</v>
+        <v>0.002761625211838305</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2630542345198635</v>
+        <v>0.7063197026022305</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1419753086419753</v>
+        <v>0.5842105263157895</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00964091821054548</v>
+        <v>0.006559480631818313</v>
       </c>
       <c r="F36" t="n">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="G36" t="n">
-        <v>205</v>
+        <v>150.5</v>
       </c>
       <c r="H36" t="n">
-        <v>206</v>
+        <v>150.5</v>
       </c>
       <c r="I36" t="n">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J36" t="n">
-        <v>197.75</v>
+        <v>143.75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RP11-367G6.3</t>
+          <t>MATK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.003743398987479557</v>
+        <v>0.002036306060134032</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2129289394381258</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04938271604938271</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00386157100009851</v>
+        <v>0.005473445252226023</v>
       </c>
       <c r="F37" t="n">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="G37" t="n">
-        <v>152</v>
+        <v>75.5</v>
       </c>
       <c r="H37" t="n">
-        <v>147.5</v>
+        <v>75.5</v>
       </c>
       <c r="I37" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="J37" t="n">
-        <v>128.125</v>
+        <v>80.75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GZMB</t>
+          <t>CD74</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01676534672215518</v>
+        <v>0.002708461261492364</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2458361391694725</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E38" t="n">
-        <v>0.006180681341510334</v>
+        <v>0.005898548149856709</v>
       </c>
       <c r="F38" t="n">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="G38" t="n">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="H38" t="n">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="I38" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J38" t="n">
-        <v>165.5</v>
+        <v>115.75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HLA-DQB1</t>
+          <t>RPL10</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.05932160345887985</v>
+        <v>0.003118806951266153</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2276260547865486</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E39" t="n">
-        <v>0.009265893511162481</v>
+        <v>0.005451272382934501</v>
       </c>
       <c r="F39" t="n">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="G39" t="n">
-        <v>173.5</v>
+        <v>118.5</v>
       </c>
       <c r="H39" t="n">
-        <v>155.5</v>
+        <v>118.5</v>
       </c>
       <c r="I39" t="n">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="J39" t="n">
-        <v>175</v>
+        <v>115.75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PRSS23</t>
+          <t>RPL13A</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1416765281747912</v>
+        <v>0.002728037481216381</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2698799931002193</v>
+        <v>0.6761565836298933</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1358024691358025</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01029863506229931</v>
+        <v>0.005476998476927539</v>
       </c>
       <c r="F40" t="n">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="G40" t="n">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="H40" t="n">
-        <v>203.5</v>
+        <v>102</v>
       </c>
       <c r="I40" t="n">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="J40" t="n">
-        <v>201.625</v>
+        <v>102.25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SDPR</t>
+          <t>PRF1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1732381498617002</v>
+        <v>0.002032282868928108</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2462839281297083</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0308641975308642</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E41" t="n">
-        <v>0.004094214659736369</v>
+        <v>0.005398142315849787</v>
       </c>
       <c r="F41" t="n">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="G41" t="n">
-        <v>191</v>
+        <v>61.5</v>
       </c>
       <c r="H41" t="n">
-        <v>128.5</v>
+        <v>61.5</v>
       </c>
       <c r="I41" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J41" t="n">
-        <v>156.125</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>XCL1</t>
+          <t>CCL5</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.09783570938686362</v>
+        <v>0.004423102336144949</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2651174049866861</v>
+        <v>0.7480314960629921</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.6631578947368421</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01230017054081461</v>
+        <v>0.00673716185718034</v>
       </c>
       <c r="F42" t="n">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="G42" t="n">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="H42" t="n">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="I42" t="n">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J42" t="n">
-        <v>199.5</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HLA-DQA1</t>
+          <t>CD8B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.08448521996323176</v>
+        <v>0.001193803866701673</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2216555353167375</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04320987654320987</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E43" t="n">
-        <v>0.006825173348189545</v>
+        <v>0.004407496519638495</v>
       </c>
       <c r="F43" t="n">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="G43" t="n">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="H43" t="n">
-        <v>141.5</v>
+        <v>30</v>
       </c>
       <c r="I43" t="n">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="J43" t="n">
-        <v>166.625</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CLEC1B</t>
+          <t>FCN1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.556041203384198e-05</v>
+        <v>0.002363712373613333</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1490737337852369</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E44" t="n">
-        <v>0.004140092680550897</v>
+        <v>0.004528540656888548</v>
       </c>
       <c r="F44" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G44" t="n">
-        <v>91</v>
+        <v>63.5</v>
       </c>
       <c r="H44" t="n">
-        <v>110</v>
+        <v>63.5</v>
       </c>
       <c r="I44" t="n">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="J44" t="n">
-        <v>98.5</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IGLL5</t>
+          <t>GNG7</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001768763116516352</v>
+        <v>0.002333156788555753</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2142787266928841</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E45" t="n">
-        <v>0.004516040487335813</v>
+        <v>0.005569098778527288</v>
       </c>
       <c r="F45" t="n">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="G45" t="n">
-        <v>153</v>
+        <v>96.5</v>
       </c>
       <c r="H45" t="n">
-        <v>155.5</v>
+        <v>96.5</v>
       </c>
       <c r="I45" t="n">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J45" t="n">
-        <v>131.875</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HLA-DMA</t>
+          <t>GZMA</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0665597053032748</v>
+        <v>0.002461732468082288</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2089797164500925</v>
+        <v>0.6761565836298933</v>
       </c>
       <c r="D46" t="n">
-        <v>0.04320987654320987</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="E46" t="n">
-        <v>0.008037508686149643</v>
+        <v>0.006046929929554344</v>
       </c>
       <c r="F46" t="n">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="H46" t="n">
-        <v>141.5</v>
+        <v>102</v>
       </c>
       <c r="I46" t="n">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="J46" t="n">
-        <v>162.625</v>
+        <v>111.25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PRR5</t>
+          <t>RPLP0</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01111877923472126</v>
+        <v>0.004463034885113507</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1108277676583687</v>
+        <v>0.7421875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="E47" t="n">
-        <v>0.006477869470376256</v>
+        <v>0.006575527088957383</v>
       </c>
       <c r="F47" t="n">
-        <v>142.5</v>
+        <v>176</v>
       </c>
       <c r="G47" t="n">
-        <v>68.5</v>
+        <v>180.5</v>
       </c>
       <c r="H47" t="n">
-        <v>90</v>
+        <v>180.5</v>
       </c>
       <c r="I47" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="J47" t="n">
-        <v>112.75</v>
+        <v>177.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TYROBP</t>
+          <t>RPS5</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01131048232497508</v>
+        <v>0.002995330315514737</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09920020289303733</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.6</v>
       </c>
       <c r="E48" t="n">
-        <v>0.00888083158546058</v>
+        <v>0.006220362298727599</v>
       </c>
       <c r="F48" t="n">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="G48" t="n">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="H48" t="n">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="I48" t="n">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="J48" t="n">
-        <v>125.75</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PLEKHF1</t>
+          <t>MS4A1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.004036477025857239</v>
+        <v>0.002945235904420349</v>
       </c>
       <c r="C49" t="n">
-        <v>0.214960058097313</v>
+        <v>0.7116104868913857</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08024691358024691</v>
+        <v>0.5947368421052631</v>
       </c>
       <c r="E49" t="n">
-        <v>0.006122963659142378</v>
+        <v>0.006475093261229465</v>
       </c>
       <c r="F49" t="n">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G49" t="n">
-        <v>154.5</v>
+        <v>157</v>
       </c>
       <c r="H49" t="n">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I49" t="n">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="J49" t="n">
-        <v>148.875</v>
+        <v>148.25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FCRLA</t>
+          <t>HLA-DOB</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.00543292557976425</v>
+        <v>0.001989992956229747</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2205707610819084</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E50" t="n">
-        <v>0.008160916069854186</v>
+        <v>0.005665944003852677</v>
       </c>
       <c r="F50" t="n">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="G50" t="n">
-        <v>168</v>
+        <v>91.5</v>
       </c>
       <c r="H50" t="n">
-        <v>199.5</v>
+        <v>91.5</v>
       </c>
       <c r="I50" t="n">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="J50" t="n">
-        <v>167.875</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CST7</t>
+          <t>CD79A</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01811639959909336</v>
+        <v>0.002799213679358943</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2212927602998525</v>
+        <v>0.7063197026022305</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1358024691358025</v>
+        <v>0.5842105263157895</v>
       </c>
       <c r="E51" t="n">
-        <v>0.009210093571133246</v>
+        <v>0.006418878509167063</v>
       </c>
       <c r="F51" t="n">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="G51" t="n">
-        <v>169</v>
+        <v>150.5</v>
       </c>
       <c r="H51" t="n">
-        <v>203.5</v>
+        <v>150.5</v>
       </c>
       <c r="I51" t="n">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="J51" t="n">
-        <v>178.125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PF4</t>
+          <t>CD14</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0006408115591453304</v>
+        <v>0.003749348827215798</v>
       </c>
       <c r="C52" t="n">
-        <v>0.209627715570868</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04320987654320987</v>
+        <v>0.5526315789473684</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004333861091890624</v>
+        <v>0.005681284846201238</v>
       </c>
       <c r="F52" t="n">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="G52" t="n">
-        <v>148</v>
+        <v>130.5</v>
       </c>
       <c r="H52" t="n">
-        <v>141.5</v>
+        <v>130.5</v>
       </c>
       <c r="I52" t="n">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="J52" t="n">
-        <v>124.125</v>
+        <v>136.25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MYL9</t>
+          <t>CCL4</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01040085290843193</v>
+        <v>0.00358491237770205</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2156457361135724</v>
+        <v>0.7116104868913857</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06172839506172839</v>
+        <v>0.5947368421052631</v>
       </c>
       <c r="E53" t="n">
-        <v>0.005659649753614513</v>
+        <v>0.006204978154835926</v>
       </c>
       <c r="F53" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G53" t="n">
-        <v>156.5</v>
+        <v>157</v>
       </c>
       <c r="H53" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I53" t="n">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="J53" t="n">
-        <v>147.875</v>
+        <v>152.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ARHGAP24</t>
+          <t>FCRL6</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.04247243821267346</v>
+        <v>0.002051621270167522</v>
       </c>
       <c r="C54" t="n">
-        <v>0.232319375503797</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D54" t="n">
-        <v>0.09876543209876543</v>
+        <v>0.5</v>
       </c>
       <c r="E54" t="n">
-        <v>0.007097474311076509</v>
+        <v>0.005658025153213785</v>
       </c>
       <c r="F54" t="n">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="G54" t="n">
-        <v>179</v>
+        <v>83.5</v>
       </c>
       <c r="H54" t="n">
-        <v>191.5</v>
+        <v>83.5</v>
       </c>
       <c r="I54" t="n">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="J54" t="n">
-        <v>177.625</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CD79A</t>
+          <t>EEF1A1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.006297569285120496</v>
+        <v>0.00261019674754015</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2156457361135724</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08641975308641975</v>
+        <v>0.531578947368421</v>
       </c>
       <c r="E55" t="n">
-        <v>0.005942536009332834</v>
+        <v>0.005308725405432807</v>
       </c>
       <c r="F55" t="n">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="G55" t="n">
-        <v>156.5</v>
+        <v>115</v>
       </c>
       <c r="H55" t="n">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="I55" t="n">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="J55" t="n">
-        <v>151.875</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100A12</t>
+          <t>RPS12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>0.003821072602719318</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1246173977356773</v>
+        <v>0.7224334600760456</v>
       </c>
       <c r="D56" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.6157894736842106</v>
       </c>
       <c r="E56" t="n">
-        <v>0.004127475048452843</v>
+        <v>0.006510965965138713</v>
       </c>
       <c r="F56" t="n">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="G56" t="n">
-        <v>74.5</v>
+        <v>170</v>
       </c>
       <c r="H56" t="n">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="I56" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="J56" t="n">
-        <v>75.625</v>
+        <v>166.25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AC147651.3</t>
+          <t>BANK1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>0.00310356989078475</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1494031785007844</v>
+        <v>0.7011070110701108</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004190551957935492</v>
+        <v>0.006041943150827906</v>
       </c>
       <c r="F57" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G57" t="n">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="H57" t="n">
-        <v>121.5</v>
+        <v>142</v>
       </c>
       <c r="I57" t="n">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="J57" t="n">
-        <v>96.125</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CD19</t>
+          <t>B2M</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.009170223537368908</v>
+        <v>0.001713006873254952</v>
       </c>
       <c r="C58" t="n">
-        <v>0.201505032106125</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D58" t="n">
-        <v>0.04938271604938271</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E58" t="n">
-        <v>0.005237099667348191</v>
+        <v>0.004578631979301207</v>
       </c>
       <c r="F58" t="n">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="G58" t="n">
-        <v>140</v>
+        <v>56.5</v>
       </c>
       <c r="H58" t="n">
-        <v>147.5</v>
+        <v>56.5</v>
       </c>
       <c r="I58" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="J58" t="n">
-        <v>137.875</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GZMK</t>
+          <t>MALAT1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0007275661505688903</v>
+        <v>0.001656620398164907</v>
       </c>
       <c r="C59" t="n">
-        <v>0.181733705031196</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D59" t="n">
-        <v>0.06172839506172839</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E59" t="n">
-        <v>0.006351705489200925</v>
+        <v>0.004763578831754343</v>
       </c>
       <c r="F59" t="n">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="G59" t="n">
-        <v>117</v>
+        <v>56.5</v>
       </c>
       <c r="H59" t="n">
-        <v>164</v>
+        <v>56.5</v>
       </c>
       <c r="I59" t="n">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="J59" t="n">
-        <v>133</v>
+        <v>54.25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GNLY</t>
+          <t>GZMM</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.004101964960290578</v>
+        <v>0.001940657170065364</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2163358024691358</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004842939081696772</v>
+        <v>0.005909307834673951</v>
       </c>
       <c r="F60" t="n">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="G60" t="n">
-        <v>159</v>
+        <v>96.5</v>
       </c>
       <c r="H60" t="n">
-        <v>173</v>
+        <v>96.5</v>
       </c>
       <c r="I60" t="n">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="J60" t="n">
-        <v>143.5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GP1BA</t>
+          <t>RPS18</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.002377471840792532</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1731240416686426</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E61" t="n">
-        <v>0.002923742155533636</v>
+        <v>0.00559312091189301</v>
       </c>
       <c r="F61" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G61" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H61" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I61" t="n">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="J61" t="n">
-        <v>90</v>
+        <v>105.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PTPRCAP</t>
+          <t>GPX1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.05957528719102509</v>
+        <v>0.002751057609046373</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2560793116348671</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08641975308641975</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E62" t="n">
-        <v>0.006859144851907082</v>
+        <v>0.005072568296079281</v>
       </c>
       <c r="F62" t="n">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>203</v>
+        <v>78.5</v>
       </c>
       <c r="H62" t="n">
-        <v>183</v>
+        <v>78.5</v>
       </c>
       <c r="I62" t="n">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="J62" t="n">
-        <v>183.5</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CD9</t>
+          <t>GRN</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.06196179076746487</v>
+        <v>0.004485502149218024</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2499258346454896</v>
+        <v>0.7251908396946565</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08024691358024691</v>
+        <v>0.6210526315789473</v>
       </c>
       <c r="E63" t="n">
-        <v>0.006363399399150498</v>
+        <v>0.00605565742717384</v>
       </c>
       <c r="F63" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G63" t="n">
-        <v>195</v>
+        <v>172.5</v>
       </c>
       <c r="H63" t="n">
-        <v>179</v>
+        <v>172.5</v>
       </c>
       <c r="I63" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="J63" t="n">
-        <v>177.25</v>
+        <v>169.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CD160</t>
+          <t>GZMK</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.001744294678654266</v>
+        <v>0.001201930907020381</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1834598053503526</v>
+        <v>0.6148867313915858</v>
       </c>
       <c r="D64" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="E64" t="n">
-        <v>0.006472284133888529</v>
+        <v>0.004302424512378923</v>
       </c>
       <c r="F64" t="n">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="G64" t="n">
-        <v>120</v>
+        <v>32.5</v>
       </c>
       <c r="H64" t="n">
-        <v>155.5</v>
+        <v>32.5</v>
       </c>
       <c r="I64" t="n">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="J64" t="n">
-        <v>133.375</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>KLRB1</t>
+          <t>GZMH</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>7.970087301336708e-05</v>
+        <v>0.003048378933788081</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1581402064832864</v>
+        <v>0.7063197026022305</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0308641975308642</v>
+        <v>0.5842105263157895</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003957794429717833</v>
+        <v>0.006496044362871821</v>
       </c>
       <c r="F65" t="n">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="G65" t="n">
-        <v>102</v>
+        <v>150.5</v>
       </c>
       <c r="H65" t="n">
-        <v>128.5</v>
+        <v>150.5</v>
       </c>
       <c r="I65" t="n">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="J65" t="n">
-        <v>105.625</v>
+        <v>146.75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HLA-DMB</t>
+          <t>PTPRCAP</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.08688014755992672</v>
+        <v>0.003655275350103867</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1985460742191041</v>
+        <v>0.7224334600760456</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0308641975308642</v>
+        <v>0.6157894736842106</v>
       </c>
       <c r="E66" t="n">
-        <v>0.005781807171536563</v>
+        <v>0.00663802604651081</v>
       </c>
       <c r="F66" t="n">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="G66" t="n">
-        <v>134.5</v>
+        <v>170</v>
       </c>
       <c r="H66" t="n">
-        <v>128.5</v>
+        <v>170</v>
       </c>
       <c r="I66" t="n">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="J66" t="n">
-        <v>147.75</v>
+        <v>164.25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MS4A1</t>
+          <t>CD79B</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.05131059571062071</v>
+        <v>0.002940403944838488</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2384653907287652</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09876543209876543</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E67" t="n">
-        <v>0.006600455047590451</v>
+        <v>0.005534247000730501</v>
       </c>
       <c r="F67" t="n">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="G67" t="n">
-        <v>183.5</v>
+        <v>109</v>
       </c>
       <c r="H67" t="n">
-        <v>191.5</v>
+        <v>109</v>
       </c>
       <c r="I67" t="n">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="J67" t="n">
-        <v>178.25</v>
+        <v>110.75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FOLR3</t>
+          <t>KIAA0125</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>0.001395938592581627</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1246173977356773</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D68" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E68" t="n">
-        <v>0.00351443645369714</v>
+        <v>0.005440664656648234</v>
       </c>
       <c r="F68" t="n">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="G68" t="n">
-        <v>74.5</v>
+        <v>50</v>
       </c>
       <c r="H68" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I68" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="J68" t="n">
-        <v>72.625</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NCR3</t>
+          <t>FTL</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.004106000118057978</v>
+        <v>0.0005281021867356445</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1844609502635878</v>
+        <v>0.5654761904761905</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.2315789473684211</v>
       </c>
       <c r="E69" t="n">
-        <v>0.008246661098347858</v>
+        <v>0.003503824316588836</v>
       </c>
       <c r="F69" t="n">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
-        <v>121</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="J69" t="n">
-        <v>148</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GZMA</t>
+          <t>LST1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.008765542209247938</v>
+        <v>0.001286242178787047</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2000146102710205</v>
+        <v>0.6012658227848101</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.3368421052631579</v>
       </c>
       <c r="E70" t="n">
-        <v>0.007839852152939305</v>
+        <v>0.004007943395566632</v>
       </c>
       <c r="F70" t="n">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="G70" t="n">
-        <v>138</v>
+        <v>19.5</v>
       </c>
       <c r="H70" t="n">
-        <v>187</v>
+        <v>19.5</v>
       </c>
       <c r="I70" t="n">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="J70" t="n">
-        <v>158</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GPX1</t>
+          <t>SAMD3</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.001317881439709497</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1246173977356773</v>
+        <v>0.625</v>
       </c>
       <c r="D71" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.4</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003426511587932992</v>
+        <v>0.004562551822726047</v>
       </c>
       <c r="F71" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G71" t="n">
-        <v>74.5</v>
+        <v>45</v>
       </c>
       <c r="H71" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I71" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="J71" t="n">
-        <v>72.125</v>
+        <v>43.25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CD79B</t>
+          <t>EAF2</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.004418516934120696</v>
+        <v>0.003596068717011671</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1970989453982651</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E72" t="n">
-        <v>0.004696723791670493</v>
+        <v>0.00549745326755159</v>
       </c>
       <c r="F72" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
-        <v>131</v>
+        <v>91.5</v>
       </c>
       <c r="H72" t="n">
-        <v>155.5</v>
+        <v>91.5</v>
       </c>
       <c r="I72" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J72" t="n">
-        <v>132.125</v>
+        <v>107.75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CCL5</t>
+          <t>RPS27</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.004165671779700726</v>
+        <v>0.002073210162190796</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1985460742191041</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06172839506172839</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004600129044838364</v>
+        <v>0.00573287673782361</v>
       </c>
       <c r="F73" t="n">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="G73" t="n">
-        <v>134.5</v>
+        <v>69.5</v>
       </c>
       <c r="H73" t="n">
-        <v>164</v>
+        <v>69.5</v>
       </c>
       <c r="I73" t="n">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="J73" t="n">
-        <v>133.625</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ABI3</t>
+          <t>TYROBP</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02679596714265556</v>
+        <v>0.0007237816171228421</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2355572762076827</v>
+        <v>0.5654761904761905</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0308641975308642</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00417129032029951</v>
+        <v>0.003477304705407539</v>
       </c>
       <c r="F74" t="n">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>181</v>
+        <v>4.5</v>
       </c>
       <c r="H74" t="n">
-        <v>128.5</v>
+        <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="J74" t="n">
-        <v>144.125</v>
+        <v>7.875</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AIF1</t>
+          <t>HOPX</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0003834061805076298</v>
+        <v>0.001381569439110117</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0257201646090535</v>
+        <v>0.625</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.4</v>
       </c>
       <c r="E75" t="n">
-        <v>0.009865450848183355</v>
+        <v>0.004685692262592557</v>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="G75" t="n">
+        <v>45</v>
+      </c>
+      <c r="H75" t="n">
+        <v>45</v>
+      </c>
+      <c r="I75" t="n">
         <v>58</v>
       </c>
-      <c r="H75" t="n">
-        <v>121.5</v>
-      </c>
-      <c r="I75" t="n">
-        <v>191</v>
-      </c>
       <c r="J75" t="n">
-        <v>117.625</v>
+        <v>45.75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CTSS</t>
+          <t>RPL21</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>0.002042242560990563</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0154320987654321</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D76" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E76" t="n">
-        <v>0.003946664065199315</v>
+        <v>0.005123384852359411</v>
       </c>
       <c r="F76" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G76" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H76" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I76" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="J76" t="n">
-        <v>69</v>
+        <v>73.25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IL32</t>
+          <t>TSPO</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1232029805873858</v>
+        <v>0.002833028063987928</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2083357111605699</v>
+        <v>0.6484641638225256</v>
       </c>
       <c r="D77" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.4578947368421052</v>
       </c>
       <c r="E77" t="n">
-        <v>0.006082457721219911</v>
+        <v>0.004587177728108433</v>
       </c>
       <c r="F77" t="n">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="G77" t="n">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="H77" t="n">
-        <v>155.5</v>
+        <v>65</v>
       </c>
       <c r="I77" t="n">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="J77" t="n">
-        <v>159.875</v>
+        <v>72.25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TIGIT</t>
+          <t>COTL1</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0005845348296774266</v>
+        <v>0.001631003797951815</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2319208860089363</v>
+        <v>0.6148867313915858</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0308641975308642</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002622371112114866</v>
+        <v>0.004096933764351048</v>
       </c>
       <c r="F78" t="n">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="G78" t="n">
-        <v>178</v>
+        <v>32.5</v>
       </c>
       <c r="H78" t="n">
-        <v>128.5</v>
+        <v>32.5</v>
       </c>
       <c r="I78" t="n">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J78" t="n">
-        <v>119.625</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>KLRG1</t>
+          <t>HLA-DQB1</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.001907192194861193</v>
+        <v>0.005739241063186245</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1832112148281977</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="D79" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.6947368421052631</v>
       </c>
       <c r="E79" t="n">
-        <v>0.00517855561105883</v>
+        <v>0.007077137027059838</v>
       </c>
       <c r="F79" t="n">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="G79" t="n">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="H79" t="n">
-        <v>155.5</v>
+        <v>188</v>
       </c>
       <c r="I79" t="n">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="J79" t="n">
-        <v>127.875</v>
+        <v>188.25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SEPT5</t>
+          <t>CTSS</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4.988104850768626e-05</v>
+        <v>0.002041786919116705</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2173792227382795</v>
+        <v>0.6397306397306397</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.4368421052631579</v>
       </c>
       <c r="E80" t="n">
-        <v>0.001768030675799148</v>
+        <v>0.004724966286593069</v>
       </c>
       <c r="F80" t="n">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="G80" t="n">
-        <v>161.5</v>
+        <v>59.5</v>
       </c>
       <c r="H80" t="n">
-        <v>90</v>
+        <v>59.5</v>
       </c>
       <c r="I80" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J80" t="n">
-        <v>101.625</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BLNK</t>
+          <t>RPL23A</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.003340056414179992</v>
+        <v>0.003318090520212711</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1867539731259805</v>
+        <v>0.7011070110701108</v>
       </c>
       <c r="D81" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="E81" t="n">
-        <v>0.006399102570661791</v>
+        <v>0.005598845457450809</v>
       </c>
       <c r="F81" t="n">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G81" t="n">
-        <v>123.5</v>
+        <v>142</v>
       </c>
       <c r="H81" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="I81" t="n">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="J81" t="n">
-        <v>140.875</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ACRBP</t>
+          <t>RPS3</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>0.002898183117152647</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1287713109935332</v>
+        <v>0.6859205776173285</v>
       </c>
       <c r="D82" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.5421052631578948</v>
       </c>
       <c r="E82" t="n">
-        <v>0.002080042273948452</v>
+        <v>0.005799374690497505</v>
       </c>
       <c r="F82" t="n">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="G82" t="n">
-        <v>78</v>
+        <v>122.5</v>
       </c>
       <c r="H82" t="n">
-        <v>61</v>
+        <v>122.5</v>
       </c>
       <c r="I82" t="n">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="J82" t="n">
-        <v>67.75</v>
+        <v>124.25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AQP3</t>
+          <t>NCR3</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0112913120159497</v>
+        <v>0.001136094519887674</v>
       </c>
       <c r="C83" t="n">
-        <v>0.14973408255062</v>
+        <v>0.6109324758842444</v>
       </c>
       <c r="D83" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.3631578947368421</v>
       </c>
       <c r="E83" t="n">
-        <v>0.005552119947852197</v>
+        <v>0.004630064940585483</v>
       </c>
       <c r="F83" t="n">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="G83" t="n">
-        <v>95</v>
+        <v>28.5</v>
       </c>
       <c r="H83" t="n">
-        <v>134.5</v>
+        <v>28.5</v>
       </c>
       <c r="I83" t="n">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="J83" t="n">
-        <v>126.625</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FCER1G</t>
+          <t>AP1S2</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0003067249444061038</v>
+        <v>0.002979863381977318</v>
       </c>
       <c r="C84" t="n">
-        <v>0.02204585537918871</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E84" t="n">
-        <v>0.008355196216383871</v>
+        <v>0.005027605165288652</v>
       </c>
       <c r="F84" t="n">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G84" t="n">
-        <v>56.5</v>
+        <v>87.5</v>
       </c>
       <c r="H84" t="n">
-        <v>110</v>
+        <v>87.5</v>
       </c>
       <c r="I84" t="n">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="J84" t="n">
-        <v>110.125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CTSW</t>
+          <t>LAG3</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.001230722668414716</v>
+        <v>0.001073983071953143</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1988380537400145</v>
+        <v>0.6109324758842444</v>
       </c>
       <c r="D85" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.3631578947368421</v>
       </c>
       <c r="E85" t="n">
-        <v>0.004490887183323968</v>
+        <v>0.004570904748083613</v>
       </c>
       <c r="F85" t="n">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="G85" t="n">
-        <v>136</v>
+        <v>28.5</v>
       </c>
       <c r="H85" t="n">
-        <v>155.5</v>
+        <v>28.5</v>
       </c>
       <c r="I85" t="n">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="J85" t="n">
-        <v>126.375</v>
+        <v>31.75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PPBP</t>
+          <t>PNOC</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.006287689786743669</v>
+        <v>0.0006507860209290865</v>
       </c>
       <c r="C86" t="n">
-        <v>0.223487399244975</v>
+        <v>0.581039755351682</v>
       </c>
       <c r="D86" t="n">
-        <v>0.04320987654320987</v>
+        <v>0.2789473684210526</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003649877353136782</v>
+        <v>0.003241519295110739</v>
       </c>
       <c r="F86" t="n">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="G86" t="n">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="H86" t="n">
-        <v>141.5</v>
+        <v>13</v>
       </c>
       <c r="I86" t="n">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
-        <v>133.875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MAL</t>
+          <t>CDA</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.0459042402360312</v>
+        <v>0.003663959075669261</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1507356483201894</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D87" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.5526315789473684</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01179182636309884</v>
+        <v>0.005515774778886339</v>
       </c>
       <c r="F87" t="n">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="G87" t="n">
-        <v>97</v>
+        <v>130.5</v>
       </c>
       <c r="H87" t="n">
-        <v>173</v>
+        <v>130.5</v>
       </c>
       <c r="I87" t="n">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="J87" t="n">
-        <v>161.75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BLVRA</t>
+          <t>RPL11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7.555762930032745e-05</v>
+        <v>0.003090739973701859</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1997191677152288</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E88" t="n">
-        <v>0.001727114462732297</v>
+        <v>0.005239051176270107</v>
       </c>
       <c r="F88" t="n">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="G88" t="n">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="H88" t="n">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="I88" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="J88" t="n">
-        <v>95.25</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AP001189.4</t>
+          <t>CFP</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.001235631601552606</v>
+        <v>0.004066076109414332</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2170302994273032</v>
+        <v>0.7011070110701108</v>
       </c>
       <c r="D89" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="E89" t="n">
-        <v>0.004715828552056386</v>
+        <v>0.005691153801372771</v>
       </c>
       <c r="F89" t="n">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="G89" t="n">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H89" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="I89" t="n">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="J89" t="n">
-        <v>139</v>
+        <v>145.5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CCL4</t>
+          <t>NEAT1</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.003157500912525628</v>
+        <v>0.002419396496706664</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2036293321433884</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D90" t="n">
-        <v>0.06172839506172839</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004422660255105914</v>
+        <v>0.004626341413822324</v>
       </c>
       <c r="F90" t="n">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="G90" t="n">
-        <v>143.5</v>
+        <v>69.5</v>
       </c>
       <c r="H90" t="n">
-        <v>164</v>
+        <v>69.5</v>
       </c>
       <c r="I90" t="n">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="J90" t="n">
-        <v>132.875</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ALDH2</t>
+          <t>HLA-DMB</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.07645119239322137</v>
+        <v>0.002923723659323267</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1802798353909465</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E91" t="n">
-        <v>0.007298910173099744</v>
+        <v>0.006038441172573776</v>
       </c>
       <c r="F91" t="n">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="G91" t="n">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="H91" t="n">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="I91" t="n">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="J91" t="n">
-        <v>146.5</v>
+        <v>139.25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PLBD1</t>
+          <t>CD3E</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1883154575155452</v>
+        <v>0.0009931562983760463</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2191408047701943</v>
+        <v>0.6089743589743589</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="E92" t="n">
-        <v>0.006093174266776765</v>
+        <v>0.003970755354740991</v>
       </c>
       <c r="F92" t="n">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="G92" t="n">
-        <v>165</v>
+        <v>26.5</v>
       </c>
       <c r="H92" t="n">
-        <v>110</v>
+        <v>26.5</v>
       </c>
       <c r="I92" t="n">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="J92" t="n">
-        <v>155</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CST3</t>
+          <t>IL32</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>0.002650980894473452</v>
       </c>
       <c r="C93" t="n">
-        <v>0.08954296459815222</v>
+        <v>0.6859205776173285</v>
       </c>
       <c r="D93" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.5421052631578948</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003066148655608886</v>
+        <v>0.005641593324078141</v>
       </c>
       <c r="F93" t="n">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="G93" t="n">
-        <v>62</v>
+        <v>122.5</v>
       </c>
       <c r="H93" t="n">
-        <v>61</v>
+        <v>122.5</v>
       </c>
       <c r="I93" t="n">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="J93" t="n">
-        <v>67.5</v>
+        <v>117.25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HOPX</t>
+          <t>KLRG1</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01958601624668068</v>
+        <v>0.001458541266638592</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2036293321433884</v>
+        <v>0.6312292358803987</v>
       </c>
       <c r="D94" t="n">
-        <v>0.08024691358024691</v>
+        <v>0.4157894736842105</v>
       </c>
       <c r="E94" t="n">
-        <v>0.006565527972379139</v>
+        <v>0.004632780742825726</v>
       </c>
       <c r="F94" t="n">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="G94" t="n">
-        <v>143.5</v>
+        <v>52</v>
       </c>
       <c r="H94" t="n">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="I94" t="n">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="J94" t="n">
-        <v>158.375</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>COTL1</t>
+          <t>LGALS2</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>0.00334189263021924</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01402918069584736</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D95" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E95" t="n">
-        <v>0.003363510147447212</v>
+        <v>0.005288808908294843</v>
       </c>
       <c r="F95" t="n">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="G95" t="n">
-        <v>52</v>
+        <v>96.5</v>
       </c>
       <c r="H95" t="n">
-        <v>61</v>
+        <v>96.5</v>
       </c>
       <c r="I95" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J95" t="n">
-        <v>66.25</v>
+        <v>103.75</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SPON2</t>
+          <t>TMEM66</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.02388754271020574</v>
+        <v>0.006378147857977265</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2202115253146741</v>
+        <v>0.76</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1172839506172839</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E96" t="n">
-        <v>0.006588826481685896</v>
+        <v>0.006706816478607473</v>
       </c>
       <c r="F96" t="n">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="G96" t="n">
-        <v>166.5</v>
+        <v>186</v>
       </c>
       <c r="H96" t="n">
-        <v>197.5</v>
+        <v>186</v>
       </c>
       <c r="I96" t="n">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="J96" t="n">
-        <v>170.25</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>KIAA0125</t>
+          <t>RPLP2</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.03875287486269725</v>
+        <v>0.002139041357197844</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2119277061805797</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1049382716049383</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E97" t="n">
-        <v>0.008679914395611475</v>
+        <v>0.005719893430756787</v>
       </c>
       <c r="F97" t="n">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="G97" t="n">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H97" t="n">
-        <v>194.5</v>
+        <v>109</v>
       </c>
       <c r="I97" t="n">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="J97" t="n">
-        <v>174.125</v>
+        <v>106.75</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>LY86</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.009379227137413159</v>
+        <v>0.004525792214170794</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2067429304942047</v>
+        <v>0.7089552238805971</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="E98" t="n">
-        <v>0.002775653615044167</v>
+        <v>0.005671963042532826</v>
       </c>
       <c r="F98" t="n">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G98" t="n">
-        <v>145</v>
+        <v>153.5</v>
       </c>
       <c r="H98" t="n">
-        <v>110</v>
+        <v>153.5</v>
       </c>
       <c r="I98" t="n">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="J98" t="n">
-        <v>116.75</v>
+        <v>154.75</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LST1</t>
+          <t>RPS23</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>7.668123610152595e-05</v>
+        <v>0.004205976185203538</v>
       </c>
       <c r="C99" t="n">
-        <v>0.02204585537918871</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E99" t="n">
-        <v>0.006640871300161656</v>
+        <v>0.005613765994399398</v>
       </c>
       <c r="F99" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="G99" t="n">
-        <v>56.5</v>
+        <v>164.5</v>
       </c>
       <c r="H99" t="n">
-        <v>110</v>
+        <v>164.5</v>
       </c>
       <c r="I99" t="n">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="J99" t="n">
-        <v>104.625</v>
+        <v>156.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>S100A11</t>
+          <t>CHST12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>0.002337293561897906</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01714677640603567</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E100" t="n">
-        <v>0.004638123373544833</v>
+        <v>0.005564159703310957</v>
       </c>
       <c r="F100" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G100" t="n">
-        <v>54</v>
+        <v>118.5</v>
       </c>
       <c r="H100" t="n">
-        <v>90</v>
+        <v>118.5</v>
       </c>
       <c r="I100" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J100" t="n">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CYBA</t>
+          <t>TPT1</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.003645966505212324</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1427770607636852</v>
+        <v>0.7011070110701108</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="E101" t="n">
-        <v>0.00403360284645903</v>
+        <v>0.005531768424829869</v>
       </c>
       <c r="F101" t="n">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="G101" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="H101" t="n">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="I101" t="n">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J101" t="n">
-        <v>85.5</v>
+        <v>134.75</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PKIG</t>
+          <t>HLA-B</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0006565229078787203</v>
+        <v>0.004177569039688576</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2122604027365932</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D102" t="n">
-        <v>0.08024691358024691</v>
+        <v>0.6</v>
       </c>
       <c r="E102" t="n">
-        <v>0.004751082804932681</v>
+        <v>0.005697784187839504</v>
       </c>
       <c r="F102" t="n">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="G102" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="H102" t="n">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="I102" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="J102" t="n">
-        <v>137.5</v>
+        <v>156.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LDLRAP1</t>
+          <t>CEBPD</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>0.004198090255891991</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1297599582948271</v>
+        <v>0.6959706959706959</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.5631578947368421</v>
       </c>
       <c r="E103" t="n">
-        <v>0.002757673842490467</v>
+        <v>0.005408445887768788</v>
       </c>
       <c r="F103" t="n">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="G103" t="n">
-        <v>83.5</v>
+        <v>135.5</v>
       </c>
       <c r="H103" t="n">
-        <v>90</v>
+        <v>135.5</v>
       </c>
       <c r="I103" t="n">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="J103" t="n">
-        <v>78.125</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>KLRC1</t>
+          <t>RPL27A</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.01362315632884977</v>
+        <v>0.002572555726046455</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1772082261378898</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D104" t="n">
-        <v>0.06790123456790123</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E104" t="n">
-        <v>0.007310820827805415</v>
+        <v>0.005260724428471452</v>
       </c>
       <c r="F104" t="n">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="G104" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H104" t="n">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="I104" t="n">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="J104" t="n">
-        <v>149.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LTB</t>
+          <t>CD68</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.01538610679936299</v>
+        <v>0.003605096098441483</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1740152851263962</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="D105" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="E105" t="n">
-        <v>0.00419649701987494</v>
+        <v>0.005780259875810293</v>
       </c>
       <c r="F105" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G105" t="n">
-        <v>109</v>
+        <v>137.5</v>
       </c>
       <c r="H105" t="n">
-        <v>134.5</v>
+        <v>137.5</v>
       </c>
       <c r="I105" t="n">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="J105" t="n">
-        <v>124.875</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RAMP1</t>
+          <t>HLA-DMA</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.002190099757624487</v>
+        <v>0.005740702265192588</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2187862079987214</v>
+        <v>0.7630522088353414</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.6894736842105263</v>
       </c>
       <c r="E106" t="n">
-        <v>0.002339706100148641</v>
+        <v>0.006940109427572888</v>
       </c>
       <c r="F106" t="n">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="G106" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="H106" t="n">
-        <v>121.5</v>
+        <v>187</v>
       </c>
       <c r="I106" t="n">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="J106" t="n">
-        <v>116.875</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>FCGR2B</t>
+          <t>CD40</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>0.003791963479721404</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1485822819156152</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="D107" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E107" t="n">
-        <v>0.00157329728897844</v>
+        <v>0.005439347092173689</v>
       </c>
       <c r="F107" t="n">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="G107" t="n">
-        <v>90</v>
+        <v>75.5</v>
       </c>
       <c r="H107" t="n">
-        <v>61</v>
+        <v>75.5</v>
       </c>
       <c r="I107" t="n">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="J107" t="n">
-        <v>68.25</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>C5orf56</t>
+          <t>NKG7</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.001881372217142454</v>
+        <v>0.004944103231530979</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2180804460374353</v>
+        <v>0.753968253968254</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.6736842105263158</v>
       </c>
       <c r="E108" t="n">
-        <v>0.001761086722475827</v>
+        <v>0.006914052065001118</v>
       </c>
       <c r="F108" t="n">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="G108" t="n">
-        <v>163</v>
+        <v>183.5</v>
       </c>
       <c r="H108" t="n">
-        <v>110</v>
+        <v>183.5</v>
       </c>
       <c r="I108" t="n">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="J108" t="n">
-        <v>111.25</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TTC38</t>
+          <t>RPS14</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.00257306073668056</v>
+        <v>0.001781621244473733</v>
       </c>
       <c r="C109" t="n">
-        <v>0.228395061728395</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D109" t="n">
-        <v>0.04938271604938271</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E109" t="n">
-        <v>0.002932709706693721</v>
+        <v>0.004180972454803403</v>
       </c>
       <c r="F109" t="n">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="G109" t="n">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="H109" t="n">
-        <v>147.5</v>
+        <v>50</v>
       </c>
       <c r="I109" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="J109" t="n">
-        <v>128.625</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ENHO</t>
+          <t>GSTP1</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.04416839199447894</v>
+        <v>0.003988485101077869</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1103754094230285</v>
+        <v>0.6959706959706959</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.5631578947368421</v>
       </c>
       <c r="E110" t="n">
-        <v>0.005731866035821853</v>
+        <v>0.005501532322963793</v>
       </c>
       <c r="F110" t="n">
-        <v>178.5</v>
+        <v>160</v>
       </c>
       <c r="G110" t="n">
-        <v>67</v>
+        <v>135.5</v>
       </c>
       <c r="H110" t="n">
-        <v>90</v>
+        <v>135.5</v>
       </c>
       <c r="I110" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="J110" t="n">
-        <v>116.625</v>
+        <v>135.25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PLD4</t>
+          <t>RPL3</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.03350970017636684</v>
+        <v>0.002472330535739696</v>
       </c>
       <c r="C111" t="n">
-        <v>0.09898234007555627</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D111" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01096721887931192</v>
+        <v>0.005266137030330771</v>
       </c>
       <c r="F111" t="n">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="G111" t="n">
-        <v>64</v>
+        <v>87.5</v>
       </c>
       <c r="H111" t="n">
-        <v>121.5</v>
+        <v>87.5</v>
       </c>
       <c r="I111" t="n">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="J111" t="n">
-        <v>137.125</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HIST1H2AC</t>
+          <t>LGALS1</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.02598457427893134</v>
+        <v>0.002041938352346998</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1867539731259805</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D112" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E112" t="n">
-        <v>0.005424312138970201</v>
+        <v>0.004443350468289604</v>
       </c>
       <c r="F112" t="n">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="G112" t="n">
-        <v>123.5</v>
+        <v>50</v>
       </c>
       <c r="H112" t="n">
-        <v>155.5</v>
+        <v>50</v>
       </c>
       <c r="I112" t="n">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="J112" t="n">
-        <v>142.75</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>APOBEC3A</t>
+          <t>LTB</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.02181391051882868</v>
+        <v>0.002759693447105858</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2202115253146741</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E113" t="n">
-        <v>0.00328824990574679</v>
+        <v>0.005226840358575891</v>
       </c>
       <c r="F113" t="n">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="G113" t="n">
-        <v>166.5</v>
+        <v>96.5</v>
       </c>
       <c r="H113" t="n">
-        <v>110</v>
+        <v>96.5</v>
       </c>
       <c r="I113" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J113" t="n">
-        <v>130.125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MAFB</t>
+          <t>FCGRT</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.07568438003220611</v>
+        <v>0.004113259109828409</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1661054994388328</v>
+        <v>0.7089552238805971</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="E114" t="n">
-        <v>0.00332437539350967</v>
+        <v>0.005739255350279934</v>
       </c>
       <c r="F114" t="n">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="G114" t="n">
-        <v>105</v>
+        <v>153.5</v>
       </c>
       <c r="H114" t="n">
-        <v>90</v>
+        <v>153.5</v>
       </c>
       <c r="I114" t="n">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="J114" t="n">
-        <v>118</v>
+        <v>152.75</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>LYAR</t>
+          <t>RPS6</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>0.002455274503772974</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1570381841384551</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E115" t="n">
-        <v>0.002290768854937177</v>
+        <v>0.005029977004083401</v>
       </c>
       <c r="F115" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G115" t="n">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="H115" t="n">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="I115" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J115" t="n">
-        <v>86.25</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TALDO1</t>
+          <t>PDLIM1</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>0.002458553253178255</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1246173977356773</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D116" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.5</v>
       </c>
       <c r="E116" t="n">
-        <v>0.002328274671284708</v>
+        <v>0.00542388719512721</v>
       </c>
       <c r="F116" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G116" t="n">
-        <v>74.5</v>
+        <v>83.5</v>
       </c>
       <c r="H116" t="n">
-        <v>61</v>
+        <v>83.5</v>
       </c>
       <c r="I116" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="J116" t="n">
-        <v>67.625</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PNOC</t>
+          <t>AC092580.4</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2.491293945736504e-05</v>
+        <v>0.0007469882222519754</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1800397823478161</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E117" t="n">
-        <v>0.001641995804738782</v>
+        <v>0.003139809514342155</v>
       </c>
       <c r="F117" t="n">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G117" t="n">
-        <v>115</v>
+        <v>9.5</v>
       </c>
       <c r="H117" t="n">
-        <v>90</v>
+        <v>9.5</v>
       </c>
       <c r="I117" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="J117" t="n">
-        <v>88.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>FCGRT</t>
+          <t>FCER1G</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.1673286813383431</v>
+        <v>0.001577542743098581</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1962407496998692</v>
+        <v>0.6148867313915858</v>
       </c>
       <c r="D118" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="E118" t="n">
-        <v>0.006778213377991913</v>
+        <v>0.004189597140652692</v>
       </c>
       <c r="F118" t="n">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="G118" t="n">
-        <v>129</v>
+        <v>32.5</v>
       </c>
       <c r="H118" t="n">
-        <v>121.5</v>
+        <v>32.5</v>
       </c>
       <c r="I118" t="n">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="J118" t="n">
-        <v>153.375</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>P2RX5</t>
+          <t>CST3</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.0006882507748053037</v>
+        <v>0.001186875514898394</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2109358448412011</v>
+        <v>0.5974842767295597</v>
       </c>
       <c r="D119" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.3263157894736842</v>
       </c>
       <c r="E119" t="n">
-        <v>0.003177390450586343</v>
+        <v>0.003964467854968332</v>
       </c>
       <c r="F119" t="n">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="G119" t="n">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="H119" t="n">
-        <v>155.5</v>
+        <v>18</v>
       </c>
       <c r="I119" t="n">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="J119" t="n">
-        <v>122.625</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CEBPB</t>
+          <t>HLA-A</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.06533241315850011</v>
+        <v>0.002962008395711589</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1424761607410009</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="E120" t="n">
-        <v>0.004673731221912275</v>
+        <v>0.005122419646016335</v>
       </c>
       <c r="F120" t="n">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="G120" t="n">
-        <v>87</v>
+        <v>126.5</v>
       </c>
       <c r="H120" t="n">
-        <v>90</v>
+        <v>126.5</v>
       </c>
       <c r="I120" t="n">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="J120" t="n">
-        <v>120</v>
+        <v>111.25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>FCGR3A</t>
+          <t>CYBA</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.05482708381259106</v>
+        <v>0.002003097611434961</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1245026487506537</v>
+        <v>0.6270627062706271</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="E121" t="n">
-        <v>0.004925230687836915</v>
+        <v>0.004403380632814781</v>
       </c>
       <c r="F121" t="n">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="G121" t="n">
-        <v>72</v>
+        <v>47.5</v>
       </c>
       <c r="H121" t="n">
-        <v>90</v>
+        <v>47.5</v>
       </c>
       <c r="I121" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="J121" t="n">
-        <v>116.75</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>LGALS3</t>
+          <t>LCK</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>0.001288269943134812</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1617343020851793</v>
+        <v>0.625</v>
       </c>
       <c r="D122" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.4</v>
       </c>
       <c r="E122" t="n">
-        <v>0.002408507857404476</v>
+        <v>0.00424320274521182</v>
       </c>
       <c r="F122" t="n">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G122" t="n">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="H122" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I122" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="J122" t="n">
-        <v>75.25</v>
+        <v>39.25</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>FCN1</t>
+          <t>APMAP</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.1362625565524116</v>
+        <v>0.003162160123572151</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1669257735101356</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="D123" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="E123" t="n">
-        <v>0.006620627492072459</v>
+        <v>0.005624598629458368</v>
       </c>
       <c r="F123" t="n">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="G123" t="n">
-        <v>106</v>
+        <v>126.5</v>
       </c>
       <c r="H123" t="n">
-        <v>121.5</v>
+        <v>126.5</v>
       </c>
       <c r="I123" t="n">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="J123" t="n">
-        <v>146.625</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>F13A1</t>
+          <t>RPL18A</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>0.002343522658767502</v>
       </c>
       <c r="C124" t="n">
-        <v>0.202107438779088</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E124" t="n">
-        <v>0.001722451502773305</v>
+        <v>0.004545942281991644</v>
       </c>
       <c r="F124" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G124" t="n">
-        <v>141</v>
+        <v>63.5</v>
       </c>
       <c r="H124" t="n">
-        <v>90</v>
+        <v>63.5</v>
       </c>
       <c r="I124" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J124" t="n">
-        <v>89.25</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HVCN1</t>
+          <t>OAZ1</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.0001155842385426006</v>
+        <v>0.001532073435192071</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2024099948251645</v>
+        <v>0.6070287539936102</v>
       </c>
       <c r="D125" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.3526315789473684</v>
       </c>
       <c r="E125" t="n">
-        <v>0.002080152059128724</v>
+        <v>0.003917739157278172</v>
       </c>
       <c r="F125" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="G125" t="n">
-        <v>142</v>
+        <v>24.5</v>
       </c>
       <c r="H125" t="n">
-        <v>121.5</v>
+        <v>24.5</v>
       </c>
       <c r="I125" t="n">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="J125" t="n">
-        <v>106.625</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SMIM14</t>
+          <t>RPL10A</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>0.003867751572513694</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1776739507795136</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="D126" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E126" t="n">
-        <v>0.001877950306107689</v>
+        <v>0.005952883536843943</v>
       </c>
       <c r="F126" t="n">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="G126" t="n">
-        <v>113</v>
+        <v>164.5</v>
       </c>
       <c r="H126" t="n">
-        <v>61</v>
+        <v>164.5</v>
       </c>
       <c r="I126" t="n">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="J126" t="n">
-        <v>76</v>
+        <v>159.25</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>EAF2</t>
+          <t>CCR7</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.01127214170692432</v>
+        <v>0.0007666860626926353</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1795615890348073</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="D127" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="E127" t="n">
-        <v>0.004554653267377484</v>
+        <v>0.003911231122475093</v>
       </c>
       <c r="F127" t="n">
-        <v>145.5</v>
+        <v>13</v>
       </c>
       <c r="G127" t="n">
-        <v>114</v>
+        <v>21.5</v>
       </c>
       <c r="H127" t="n">
-        <v>90</v>
+        <v>21.5</v>
       </c>
       <c r="I127" t="n">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="J127" t="n">
-        <v>114.875</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>RGS18</t>
+          <t>CD3D</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>0.001803428853977482</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1502331961591221</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D128" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E128" t="n">
-        <v>0.002946084212894049</v>
+        <v>0.005206155253868371</v>
       </c>
       <c r="F128" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G128" t="n">
-        <v>96</v>
+        <v>78.5</v>
       </c>
       <c r="H128" t="n">
-        <v>61</v>
+        <v>78.5</v>
       </c>
       <c r="I128" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J128" t="n">
-        <v>75.25</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>GIMAP5</t>
+          <t>HVCN1</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.004952033567102489</v>
+        <v>0.003841268221626929</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1492382743302537</v>
+        <v>0.7011070110701108</v>
       </c>
       <c r="D129" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="E129" t="n">
-        <v>0.00350023015235405</v>
+        <v>0.00579540832290892</v>
       </c>
       <c r="F129" t="n">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="G129" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="H129" t="n">
-        <v>121.5</v>
+        <v>142</v>
       </c>
       <c r="I129" t="n">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="J129" t="n">
-        <v>107.375</v>
+        <v>145.75</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>APOBEC3G</t>
+          <t>CD247</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>0.001853142359625945</v>
       </c>
       <c r="C130" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.6397306397306397</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.4368421052631579</v>
       </c>
       <c r="E130" t="n">
-        <v>0.006134969325153374</v>
+        <v>0.004634097665471103</v>
       </c>
       <c r="F130" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G130" t="n">
-        <v>46.5</v>
+        <v>59.5</v>
       </c>
       <c r="H130" t="n">
-        <v>61</v>
+        <v>59.5</v>
       </c>
       <c r="I130" t="n">
-        <v>142.5</v>
+        <v>57</v>
       </c>
       <c r="J130" t="n">
-        <v>79.25</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MFSD1</t>
+          <t>SMIM14</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>0.004345346652333961</v>
       </c>
       <c r="C131" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D131" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E131" t="n">
-        <v>0.006134969325153374</v>
+        <v>0.005257962970346476</v>
       </c>
       <c r="F131" t="n">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="G131" t="n">
-        <v>46.5</v>
+        <v>91.5</v>
       </c>
       <c r="H131" t="n">
-        <v>61</v>
+        <v>91.5</v>
       </c>
       <c r="I131" t="n">
-        <v>142.5</v>
+        <v>86</v>
       </c>
       <c r="J131" t="n">
-        <v>79.25</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>NRGN</t>
+          <t>RPL30</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.01111877923472126</v>
+        <v>0.002202142295171295</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1108277676583687</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D132" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.5</v>
       </c>
       <c r="E132" t="n">
-        <v>0.003001395886968774</v>
+        <v>0.004975969586672184</v>
       </c>
       <c r="F132" t="n">
-        <v>142.5</v>
+        <v>73</v>
       </c>
       <c r="G132" t="n">
-        <v>68.5</v>
+        <v>83.5</v>
       </c>
       <c r="H132" t="n">
-        <v>90</v>
+        <v>83.5</v>
       </c>
       <c r="I132" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J132" t="n">
-        <v>95</v>
+        <v>77.25</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>EFHD2</t>
+          <t>BLVRB</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.03335633770416379</v>
+        <v>0.004438837857691199</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1312717247992329</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="D133" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E133" t="n">
-        <v>0.006120905772094483</v>
+        <v>0.006026157206176734</v>
       </c>
       <c r="F133" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G133" t="n">
-        <v>85</v>
+        <v>164.5</v>
       </c>
       <c r="H133" t="n">
-        <v>90</v>
+        <v>164.5</v>
       </c>
       <c r="I133" t="n">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J133" t="n">
-        <v>120.75</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MPP1</t>
+          <t>RPS25</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.02239092094164558</v>
+        <v>0.003115654827963459</v>
       </c>
       <c r="C134" t="n">
-        <v>0.115268436950733</v>
+        <v>0.7011070110701108</v>
       </c>
       <c r="D134" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="E134" t="n">
-        <v>0.006507175571847865</v>
+        <v>0.005541514808234495</v>
       </c>
       <c r="F134" t="n">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="G134" t="n">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="H134" t="n">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="I134" t="n">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="J134" t="n">
-        <v>118.25</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SNCA</t>
+          <t>ARPC5L</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>0.001643586266591814</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1698616539487561</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="D135" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="E135" t="n">
-        <v>0.001437163106171981</v>
+        <v>0.004106289526287991</v>
       </c>
       <c r="F135" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G135" t="n">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="H135" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I135" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="J135" t="n">
-        <v>71.75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>FPR1</t>
+          <t>CD8A</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>0.001277058182207969</v>
       </c>
       <c r="C136" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.6188925081433225</v>
       </c>
       <c r="D136" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="E136" t="n">
-        <v>0.004828952102148958</v>
+        <v>0.004313375988472012</v>
       </c>
       <c r="F136" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="G136" t="n">
-        <v>50</v>
+        <v>39.5</v>
       </c>
       <c r="H136" t="n">
-        <v>61</v>
+        <v>39.5</v>
       </c>
       <c r="I136" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="J136" t="n">
-        <v>74</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>IL1B</t>
+          <t>HLA-E</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.0002300437083045778</v>
+        <v>0.003547616546997037</v>
       </c>
       <c r="C137" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.7011070110701108</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="E137" t="n">
-        <v>0.01175005267073043</v>
+        <v>0.005290227565014376</v>
       </c>
       <c r="F137" t="n">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="G137" t="n">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="H137" t="n">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="I137" t="n">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="J137" t="n">
-        <v>114.5</v>
+        <v>127.75</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>IRF8</t>
+          <t>RPL9</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.0296935518809785</v>
+        <v>0.005115992127348779</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2223846653671215</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D138" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.7</v>
       </c>
       <c r="E138" t="n">
-        <v>0.003650615297376199</v>
+        <v>0.006864665637485759</v>
       </c>
       <c r="F138" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G138" t="n">
-        <v>171</v>
+        <v>189.5</v>
       </c>
       <c r="H138" t="n">
-        <v>110</v>
+        <v>189.5</v>
       </c>
       <c r="I138" t="n">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="J138" t="n">
-        <v>134.5</v>
+        <v>186.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TNFSF13B</t>
+          <t>PSAP</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>0.003572620876699678</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1824694690191766</v>
+        <v>0.6859205776173285</v>
       </c>
       <c r="D139" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.5421052631578948</v>
       </c>
       <c r="E139" t="n">
-        <v>0.001359307858403741</v>
+        <v>0.005237395350391461</v>
       </c>
       <c r="F139" t="n">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="G139" t="n">
-        <v>118</v>
+        <v>122.5</v>
       </c>
       <c r="H139" t="n">
-        <v>61</v>
+        <v>122.5</v>
       </c>
       <c r="I139" t="n">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="J139" t="n">
-        <v>73.75</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FGL2</t>
+          <t>RPSA</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>0.004151159674729474</v>
       </c>
       <c r="C140" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.7569721115537849</v>
       </c>
       <c r="D140" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.6789473684210526</v>
       </c>
       <c r="E140" t="n">
-        <v>0.006134969325153374</v>
+        <v>0.006532165734000622</v>
       </c>
       <c r="F140" t="n">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="G140" t="n">
-        <v>46.5</v>
+        <v>185</v>
       </c>
       <c r="H140" t="n">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="I140" t="n">
-        <v>142.5</v>
+        <v>171</v>
       </c>
       <c r="J140" t="n">
-        <v>79.25</v>
+        <v>177</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SMCO4</t>
+          <t>RPS10</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>0.004807560037294724</v>
       </c>
       <c r="C141" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.753968253968254</v>
       </c>
       <c r="D141" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.6736842105263158</v>
       </c>
       <c r="E141" t="n">
-        <v>0.006134969325153374</v>
+        <v>0.006673522266369707</v>
       </c>
       <c r="F141" t="n">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="G141" t="n">
-        <v>46.5</v>
+        <v>183.5</v>
       </c>
       <c r="H141" t="n">
-        <v>61</v>
+        <v>183.5</v>
       </c>
       <c r="I141" t="n">
-        <v>142.5</v>
+        <v>176</v>
       </c>
       <c r="J141" t="n">
-        <v>79.25</v>
+        <v>181.25</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ARPC5L</t>
+          <t>LGALS3</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>0.004790639165862223</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1295113759992432</v>
+        <v>0.7279693486590039</v>
       </c>
       <c r="D142" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.6263157894736842</v>
       </c>
       <c r="E142" t="n">
-        <v>0.001577448158155254</v>
+        <v>0.005925030824339087</v>
       </c>
       <c r="F142" t="n">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="G142" t="n">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="H142" t="n">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="I142" t="n">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="J142" t="n">
-        <v>66</v>
+        <v>170.25</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MMD</t>
+          <t>TKT</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>0.003750859766508613</v>
       </c>
       <c r="C143" t="n">
-        <v>0.129635547980067</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D143" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E143" t="n">
-        <v>0.001909207591508163</v>
+        <v>0.004884503862078042</v>
       </c>
       <c r="F143" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="G143" t="n">
-        <v>82</v>
+        <v>87.5</v>
       </c>
       <c r="H143" t="n">
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="I143" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J143" t="n">
-        <v>75.75</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>FCER1A</t>
+          <t>PPAPDC1B</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>0.002422477329730933</v>
       </c>
       <c r="C144" t="n">
-        <v>0.08942452152328695</v>
+        <v>0.6270627062706271</v>
       </c>
       <c r="D144" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="E144" t="n">
-        <v>0.005164745815728428</v>
+        <v>0.004179960559191335</v>
       </c>
       <c r="F144" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G144" t="n">
-        <v>60.5</v>
+        <v>47.5</v>
       </c>
       <c r="H144" t="n">
-        <v>90</v>
+        <v>47.5</v>
       </c>
       <c r="I144" t="n">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="J144" t="n">
-        <v>85.375</v>
+        <v>51.75</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PDIA3</t>
+          <t>CFD</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>0.003129215628963812</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1552352199118368</v>
+        <v>0.6761565836298933</v>
       </c>
       <c r="D145" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="E145" t="n">
-        <v>0.001368623964850764</v>
+        <v>0.00525883502767569</v>
       </c>
       <c r="F145" t="n">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="G145" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H145" t="n">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="I145" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="J145" t="n">
-        <v>69.5</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>LITAF</t>
+          <t>NPC2</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>0.003221193604853564</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1295113759992432</v>
+        <v>0.6761565836298933</v>
       </c>
       <c r="D146" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="E146" t="n">
-        <v>0.001546354946746757</v>
+        <v>0.004980091850025164</v>
       </c>
       <c r="F146" t="n">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="G146" t="n">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="H146" t="n">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="I146" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J146" t="n">
-        <v>65.5</v>
+        <v>100.25</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CLEC10A</t>
+          <t>CD2</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>0.0006020632714442257</v>
       </c>
       <c r="C147" t="n">
-        <v>0.08936541741124247</v>
+        <v>0.5775075987841946</v>
       </c>
       <c r="D147" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.2684210526315789</v>
       </c>
       <c r="E147" t="n">
-        <v>0.002952240218323614</v>
+        <v>0.003033866799383235</v>
       </c>
       <c r="F147" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="G147" t="n">
-        <v>59</v>
+        <v>11.5</v>
       </c>
       <c r="H147" t="n">
-        <v>61</v>
+        <v>11.5</v>
       </c>
       <c r="I147" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="J147" t="n">
-        <v>66.25</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PTCRA</t>
+          <t>LDHB</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>0.003945410821682738</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1295113759992432</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D148" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.6</v>
       </c>
       <c r="E148" t="n">
-        <v>0.00153033086210058</v>
+        <v>0.005782501705770484</v>
       </c>
       <c r="F148" t="n">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="G148" t="n">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="H148" t="n">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="I148" t="n">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="J148" t="n">
-        <v>65.25</v>
+        <v>155.5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CD1C</t>
+          <t>MARCH1</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>0.001762895966691121</v>
       </c>
       <c r="C149" t="n">
-        <v>0.08942452152328695</v>
+        <v>0.6188925081433225</v>
       </c>
       <c r="D149" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="E149" t="n">
-        <v>0.005027907612173241</v>
+        <v>0.004010766648534177</v>
       </c>
       <c r="F149" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G149" t="n">
-        <v>60.5</v>
+        <v>39.5</v>
       </c>
       <c r="H149" t="n">
-        <v>90</v>
+        <v>39.5</v>
       </c>
       <c r="I149" t="n">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="J149" t="n">
-        <v>84.875</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TPM1</t>
+          <t>SH2D1A</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1.704027468922799e-05</v>
+        <v>0.0005007016911459531</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1923326835607537</v>
+        <v>0.5740181268882175</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.2578947368421052</v>
       </c>
       <c r="E150" t="n">
-        <v>0.001396768437746785</v>
+        <v>0.002927812487539788</v>
       </c>
       <c r="F150" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="G150" t="n">
-        <v>127</v>
+        <v>7.5</v>
       </c>
       <c r="H150" t="n">
-        <v>90</v>
+        <v>7.5</v>
       </c>
       <c r="I150" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="J150" t="n">
-        <v>89.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NCOA4</t>
+          <t>CYB561A3</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>0.001909817295743391</v>
       </c>
       <c r="C151" t="n">
-        <v>0.09229343108751527</v>
+        <v>0.6188925081433225</v>
       </c>
       <c r="D151" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="E151" t="n">
-        <v>0.003815765018010391</v>
+        <v>0.004035484986944695</v>
       </c>
       <c r="F151" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G151" t="n">
-        <v>63</v>
+        <v>39.5</v>
       </c>
       <c r="H151" t="n">
-        <v>61</v>
+        <v>39.5</v>
       </c>
       <c r="I151" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="J151" t="n">
-        <v>70.75</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TPM4</t>
+          <t>RPL31</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.01127214170692432</v>
+        <v>0.00274920861286312</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1025871597444688</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E152" t="n">
-        <v>0.006515330426596406</v>
+        <v>0.004786970997813211</v>
       </c>
       <c r="F152" t="n">
-        <v>145.5</v>
+        <v>99</v>
       </c>
       <c r="G152" t="n">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="H152" t="n">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="I152" t="n">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="J152" t="n">
-        <v>113.375</v>
+        <v>94.75</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>GIMAP7</t>
+          <t>APOBEC3G</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>0.003293647060957434</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1749157523198058</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="D153" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.531578947368421</v>
       </c>
       <c r="E153" t="n">
-        <v>0.001169625063288183</v>
+        <v>0.005558527056060188</v>
       </c>
       <c r="F153" t="n">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="G153" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H153" t="n">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="I153" t="n">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="J153" t="n">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>GSN</t>
+          <t>RPS11</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>0.003713479191055839</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1875310354274755</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="D154" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E154" t="n">
-        <v>0.001347298715359734</v>
+        <v>0.005427125836988666</v>
       </c>
       <c r="F154" t="n">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="G154" t="n">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="H154" t="n">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="I154" t="n">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="J154" t="n">
-        <v>75.25</v>
+        <v>135.75</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>IGSF6</t>
+          <t>RPS29</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>0.00573458400853962</v>
       </c>
       <c r="C155" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D155" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.7</v>
       </c>
       <c r="E155" t="n">
-        <v>0.004060704041660292</v>
+        <v>0.006644894235676485</v>
       </c>
       <c r="F155" t="n">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="G155" t="n">
-        <v>50</v>
+        <v>189.5</v>
       </c>
       <c r="H155" t="n">
-        <v>61</v>
+        <v>189.5</v>
       </c>
       <c r="I155" t="n">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="J155" t="n">
-        <v>69</v>
+        <v>185.5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>H2AFY</t>
+          <t>RPL36</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>0.002769716954856926</v>
       </c>
       <c r="C156" t="n">
-        <v>0.1920594837261504</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D156" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E156" t="n">
-        <v>0.001691941439860418</v>
+        <v>0.004944921158795568</v>
       </c>
       <c r="F156" t="n">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="G156" t="n">
-        <v>126</v>
+        <v>96.5</v>
       </c>
       <c r="H156" t="n">
-        <v>90</v>
+        <v>96.5</v>
       </c>
       <c r="I156" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J156" t="n">
-        <v>85.25</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>IGFBP7</t>
+          <t>DUSP2</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>0.004137734872239585</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1965259833476888</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D157" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E157" t="n">
-        <v>0.001178883051027676</v>
+        <v>0.005485497690645712</v>
       </c>
       <c r="F157" t="n">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="G157" t="n">
-        <v>130</v>
+        <v>118.5</v>
       </c>
       <c r="H157" t="n">
-        <v>61</v>
+        <v>118.5</v>
       </c>
       <c r="I157" t="n">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="J157" t="n">
-        <v>76.25</v>
+        <v>127.75</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ASGR1</t>
+          <t>RPL14</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.01127214170692432</v>
+        <v>0.001702165840988783</v>
       </c>
       <c r="C158" t="n">
-        <v>0.141581022558335</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D158" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E158" t="n">
-        <v>0.004440847963062359</v>
+        <v>0.004295696077169898</v>
       </c>
       <c r="F158" t="n">
-        <v>145.5</v>
+        <v>48</v>
       </c>
       <c r="G158" t="n">
-        <v>86</v>
+        <v>56.5</v>
       </c>
       <c r="H158" t="n">
-        <v>90</v>
+        <v>56.5</v>
       </c>
       <c r="I158" t="n">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="J158" t="n">
-        <v>107.125</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CDA</t>
+          <t>CXCR4</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>0.003705936201018592</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1226949877887567</v>
+        <v>0.7279693486590039</v>
       </c>
       <c r="D159" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.6263157894736842</v>
       </c>
       <c r="E159" t="n">
-        <v>0.002832619535872965</v>
+        <v>0.006223671731779825</v>
       </c>
       <c r="F159" t="n">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="G159" t="n">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="H159" t="n">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="I159" t="n">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="J159" t="n">
-        <v>68.25</v>
+        <v>164.25</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ID2</t>
+          <t>S100A11</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.04416839199447894</v>
+        <v>0.001659684337779888</v>
       </c>
       <c r="C160" t="n">
-        <v>0.1520920995986613</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="D160" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="E160" t="n">
-        <v>0.004632402540689003</v>
+        <v>0.003930268187566578</v>
       </c>
       <c r="F160" t="n">
-        <v>178.5</v>
+        <v>45</v>
       </c>
       <c r="G160" t="n">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="H160" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="I160" t="n">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="J160" t="n">
-        <v>119.875</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>C5AR1</t>
+          <t>TALDO1</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>0.003716643157675666</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1297599582948271</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D161" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E161" t="n">
-        <v>0.003097387404678719</v>
+        <v>0.005040851379837776</v>
       </c>
       <c r="F161" t="n">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="G161" t="n">
-        <v>83.5</v>
+        <v>109</v>
       </c>
       <c r="H161" t="n">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="I161" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J161" t="n">
-        <v>73.125</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>NCF2</t>
+          <t>IRF8</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.01127214170692432</v>
+        <v>0.00481154486685891</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1510724877577764</v>
+        <v>0.7116104868913857</v>
       </c>
       <c r="D162" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.5947368421052631</v>
       </c>
       <c r="E162" t="n">
-        <v>0.004997500285247376</v>
+        <v>0.005844495426518207</v>
       </c>
       <c r="F162" t="n">
-        <v>145.5</v>
+        <v>183</v>
       </c>
       <c r="G162" t="n">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="H162" t="n">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="I162" t="n">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="J162" t="n">
-        <v>113.625</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PGRMC1</t>
+          <t>RPS4X</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>0.001709734535064908</v>
       </c>
       <c r="C163" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.6354515050167224</v>
       </c>
       <c r="D163" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.4263157894736842</v>
       </c>
       <c r="E163" t="n">
-        <v>0.003900168486073804</v>
+        <v>0.004281097075361634</v>
       </c>
       <c r="F163" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G163" t="n">
-        <v>50</v>
+        <v>53.5</v>
       </c>
       <c r="H163" t="n">
-        <v>61</v>
+        <v>53.5</v>
       </c>
       <c r="I163" t="n">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="J163" t="n">
-        <v>68</v>
+        <v>47.75</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ZAP70</t>
+          <t>ISG20</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>0.003692753705154126</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2003109282121628</v>
+        <v>0.7224334600760456</v>
       </c>
       <c r="D164" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.6157894736842106</v>
       </c>
       <c r="E164" t="n">
-        <v>0.001143710498442945</v>
+        <v>0.006072941245231571</v>
       </c>
       <c r="F164" t="n">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="G164" t="n">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="H164" t="n">
+        <v>170</v>
+      </c>
+      <c r="I164" t="n">
+        <v>157</v>
+      </c>
+      <c r="J164" t="n">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>RAC1</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.001712467075508856</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.6188925081433225</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.3842105263157894</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.003962033837500214</v>
+      </c>
+      <c r="F165" t="n">
+        <v>50</v>
+      </c>
+      <c r="G165" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="H165" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="I165" t="n">
+        <v>21</v>
+      </c>
+      <c r="J165" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>HCST</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.004337350080348219</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.7392996108949417</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.6473684210526316</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.006117302082664225</v>
+      </c>
+      <c r="F166" t="n">
+        <v>171</v>
+      </c>
+      <c r="G166" t="n">
+        <v>179</v>
+      </c>
+      <c r="H166" t="n">
+        <v>179</v>
+      </c>
+      <c r="I166" t="n">
+        <v>158</v>
+      </c>
+      <c r="J166" t="n">
+        <v>171.75</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>NOSIP</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.003231929185200101</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.6884057971014492</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.5473684210526316</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.005235836482199538</v>
+      </c>
+      <c r="F167" t="n">
+        <v>128</v>
+      </c>
+      <c r="G167" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="H167" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="I167" t="n">
+        <v>83</v>
+      </c>
+      <c r="J167" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>PFN1</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.002783540255659212</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.6440677966101694</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.004432937072353819</v>
+      </c>
+      <c r="F168" t="n">
+        <v>105</v>
+      </c>
+      <c r="G168" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H168" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="I168" t="n">
+        <v>42</v>
+      </c>
+      <c r="J168" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>RARRES3</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.002579664740323348</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.6737588652482269</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.5157894736842105</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.004951271773052637</v>
+      </c>
+      <c r="F169" t="n">
+        <v>91</v>
+      </c>
+      <c r="G169" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="H169" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="I169" t="n">
+        <v>68</v>
+      </c>
+      <c r="J169" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>LYAR</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.001273208324368176</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.6089743589743589</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.3578947368421053</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.003904256110810766</v>
+      </c>
+      <c r="F170" t="n">
+        <v>29</v>
+      </c>
+      <c r="G170" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H170" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I170" t="n">
+        <v>17</v>
+      </c>
+      <c r="J170" t="n">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>RPL35A</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.0006557484356472643</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.5919003115264797</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.3105263157894737</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.003428935179652307</v>
+      </c>
+      <c r="F171" t="n">
+        <v>9</v>
+      </c>
+      <c r="G171" t="n">
+        <v>16</v>
+      </c>
+      <c r="H171" t="n">
+        <v>16</v>
+      </c>
+      <c r="I171" t="n">
+        <v>10</v>
+      </c>
+      <c r="J171" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>RPL5</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.00348602678515439</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.7116104868913857</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.5947368421052631</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.00551850490385261</v>
+      </c>
+      <c r="F172" t="n">
+        <v>135</v>
+      </c>
+      <c r="G172" t="n">
+        <v>157</v>
+      </c>
+      <c r="H172" t="n">
+        <v>157</v>
+      </c>
+      <c r="I172" t="n">
+        <v>112</v>
+      </c>
+      <c r="J172" t="n">
+        <v>140.25</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SNX2</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.00291176014980063</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.005031058559622789</v>
+      </c>
+      <c r="F173" t="n">
+        <v>109</v>
+      </c>
+      <c r="G173" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="H173" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="I173" t="n">
+        <v>74</v>
+      </c>
+      <c r="J173" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>RPS13</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.00380299040440169</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.7063197026022305</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.5842105263157895</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.005455076596368829</v>
+      </c>
+      <c r="F174" t="n">
+        <v>154</v>
+      </c>
+      <c r="G174" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="H174" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="I174" t="n">
+        <v>105</v>
+      </c>
+      <c r="J174" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>TIGIT</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.0005561001344386565</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.00309896710850979</v>
+      </c>
+      <c r="F175" t="n">
+        <v>6</v>
+      </c>
+      <c r="G175" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H175" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I175" t="n">
+        <v>4</v>
+      </c>
+      <c r="J175" t="n">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>NPM1</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.003163595836116263</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.7116104868913857</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.5947368421052631</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.005571073459747453</v>
+      </c>
+      <c r="F176" t="n">
+        <v>126</v>
+      </c>
+      <c r="G176" t="n">
+        <v>157</v>
+      </c>
+      <c r="H176" t="n">
+        <v>157</v>
+      </c>
+      <c r="I176" t="n">
+        <v>121</v>
+      </c>
+      <c r="J176" t="n">
+        <v>140.25</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>SPI1</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.003628268946221529</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.6934306569343066</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.5578947368421052</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.005340785242227387</v>
+      </c>
+      <c r="F177" t="n">
+        <v>141</v>
+      </c>
+      <c r="G177" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="H177" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="I177" t="n">
+        <v>94</v>
+      </c>
+      <c r="J177" t="n">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>RPS20</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.005390328132063029</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.7818930041152263</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.7210526315789474</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.006862704812529048</v>
+      </c>
+      <c r="F178" t="n">
+        <v>187</v>
+      </c>
+      <c r="G178" t="n">
+        <v>191</v>
+      </c>
+      <c r="H178" t="n">
+        <v>191</v>
+      </c>
+      <c r="I178" t="n">
+        <v>180</v>
+      </c>
+      <c r="J178" t="n">
+        <v>187.25</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>PYCARD</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.004000225204449684</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.6909090909090909</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.5526315789473684</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.005318885573166066</v>
+      </c>
+      <c r="F179" t="n">
+        <v>161</v>
+      </c>
+      <c r="G179" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="H179" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="I179" t="n">
+        <v>93</v>
+      </c>
+      <c r="J179" t="n">
+        <v>128.75</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SH2D2A</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.0009658252780575451</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.5919003115264797</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.3105263157894737</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.003339006357119089</v>
+      </c>
+      <c r="F180" t="n">
+        <v>16</v>
+      </c>
+      <c r="G180" t="n">
+        <v>16</v>
+      </c>
+      <c r="H180" t="n">
+        <v>16</v>
+      </c>
+      <c r="I180" t="n">
+        <v>8</v>
+      </c>
+      <c r="J180" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>IL7R</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.001168146462089073</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.6031746031746031</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.3421052631578947</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.003518443299778318</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23</v>
+      </c>
+      <c r="G181" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H181" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="I181" t="n">
+        <v>14</v>
+      </c>
+      <c r="J181" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>SERPINA1</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.002774394779102826</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.6506849315068494</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.4631578947368421</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.004474739264427894</v>
+      </c>
+      <c r="F182" t="n">
+        <v>104</v>
+      </c>
+      <c r="G182" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="H182" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="I182" t="n">
+        <v>46</v>
+      </c>
+      <c r="J182" t="n">
+        <v>70.75</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BRI3</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.002284030428189832</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.4842105263157895</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.004828763122853503</v>
+      </c>
+      <c r="F183" t="n">
+        <v>74</v>
+      </c>
+      <c r="G183" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="H183" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="I183" t="n">
+        <v>64</v>
+      </c>
+      <c r="J183" t="n">
+        <v>72.25</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>CD99</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.003035626146385767</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.005107841036359272</v>
+      </c>
+      <c r="F184" t="n">
+        <v>117</v>
+      </c>
+      <c r="G184" t="n">
+        <v>109</v>
+      </c>
+      <c r="H184" t="n">
+        <v>109</v>
+      </c>
+      <c r="I184" t="n">
+        <v>77</v>
+      </c>
+      <c r="J184" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>MS4A6A</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.00336975622486999</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.4842105263157895</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.004619048849954565</v>
+      </c>
+      <c r="F185" t="n">
+        <v>133</v>
+      </c>
+      <c r="G185" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="H185" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="I185" t="n">
+        <v>53</v>
+      </c>
+      <c r="J185" t="n">
+        <v>84.25</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>RPS28</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.001661019025002567</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.6168831168831169</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.3789473684210526</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.003754567886413834</v>
+      </c>
+      <c r="F186" t="n">
+        <v>47</v>
+      </c>
+      <c r="G186" t="n">
+        <v>36</v>
+      </c>
+      <c r="H186" t="n">
+        <v>36</v>
+      </c>
+      <c r="I186" t="n">
+        <v>16</v>
+      </c>
+      <c r="J186" t="n">
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>SAT1</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.001287883932037404</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.6012658227848101</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.3368421052631579</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.003430105309547731</v>
+      </c>
+      <c r="F187" t="n">
+        <v>32</v>
+      </c>
+      <c r="G187" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H187" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I187" t="n">
+        <v>11</v>
+      </c>
+      <c r="J187" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>GABARAP</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.001919237106696101</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.6375838926174496</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.4315789473684211</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.004228693980616732</v>
+      </c>
+      <c r="F188" t="n">
         <v>61</v>
       </c>
-      <c r="I164" t="n">
-        <v>45</v>
-      </c>
-      <c r="J164" t="n">
+      <c r="G188" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="H188" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="I188" t="n">
+        <v>33</v>
+      </c>
+      <c r="J188" t="n">
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>SPIB</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.001027331522806438</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.572289156626506</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.2526315789473684</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.002844705603256886</v>
+      </c>
+      <c r="F189" t="n">
+        <v>18</v>
+      </c>
+      <c r="G189" t="n">
+        <v>6</v>
+      </c>
+      <c r="H189" t="n">
+        <v>6</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>NCF2</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.004069724564847084</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.6859205776173285</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.5421052631578948</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.005117070627304415</v>
+      </c>
+      <c r="F190" t="n">
+        <v>164</v>
+      </c>
+      <c r="G190" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="H190" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="I190" t="n">
         <v>78</v>
+      </c>
+      <c r="J190" t="n">
+        <v>121.75</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>TYMP</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.001718698703653244</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.6050955414012739</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.3473684210526315</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.003406523908069667</v>
+      </c>
+      <c r="F191" t="n">
+        <v>53</v>
+      </c>
+      <c r="G191" t="n">
+        <v>23</v>
+      </c>
+      <c r="H191" t="n">
+        <v>23</v>
+      </c>
+      <c r="I191" t="n">
+        <v>9</v>
+      </c>
+      <c r="J191" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>MYL12A</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.004683627340091492</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.00534103846798259</v>
+      </c>
+      <c r="F192" t="n">
+        <v>180</v>
+      </c>
+      <c r="G192" t="n">
+        <v>147</v>
+      </c>
+      <c r="H192" t="n">
+        <v>147</v>
+      </c>
+      <c r="I192" t="n">
+        <v>95</v>
+      </c>
+      <c r="J192" t="n">
+        <v>142.25</v>
       </c>
     </row>
   </sheetData>
